--- a/teaching/CSMC/2425/static/labsheets/04-AES.xlsx
+++ b/teaching/CSMC/2425/static/labsheets/04-AES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheffieldhallam-my.sharepoint.com/personal/acesac5_hallam_shu_ac_uk/Documents/Teaching/CSMC/2425/crypto_site_2425/static/labsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acesac5\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{6CBE91A1-D376-4CAF-9789-4E090871A6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7E70C0E-D91F-4828-BC92-FBB665F01C0A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43557BAA-7722-4CB0-904B-0F71CBA20403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="12600" windowHeight="15750" xr2:uid="{18BD22D2-0FA4-470C-BC17-C0DFE678AFEB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{18BD22D2-0FA4-470C-BC17-C0DFE678AFEB}"/>
   </bookViews>
   <sheets>
     <sheet name="AES" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="271">
   <si>
     <t>Plaintext</t>
   </si>
@@ -847,6 +847,9 @@
   </si>
   <si>
     <t>ShiftRow</t>
+  </si>
+  <si>
+    <t>InvShiftRow</t>
   </si>
 </sst>
 </file>
@@ -970,12 +973,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -984,6 +984,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1318,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0E8165-3EF5-47D9-8D70-A2A5428568A0}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1374,23 +1404,35 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="2" t="str">
+        <f>MID($B$1,4*(B$2-1)+$A3,1)</f>
+        <v>t</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" ref="C3:E6" si="0">MID($B$1,4*(C$2-1)+$A3,1)</f>
+        <v>o</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>t</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
         <v>47</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1398,12 +1440,26 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:E6" si="1">MID($B$1,4*(B$2-1)+$A4,1)</f>
+        <v>o</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>r</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>t</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>t</v>
+      </c>
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>15</v>
       </c>
       <c r="I4" t="s">
@@ -1412,7 +1468,7 @@
       <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1420,12 +1476,26 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>b</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>n</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>o</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>h</v>
+      </c>
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>71</v>
       </c>
       <c r="I5" t="s">
@@ -1434,7 +1504,7 @@
       <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>67</v>
       </c>
     </row>
@@ -1442,23 +1512,35 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>e</v>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>o</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>59</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>98</v>
       </c>
     </row>
@@ -1498,27 +1580,27 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" ref="H9:K12" si="0">_xlfn.VALUETOTEXT(H3)</f>
+      <c r="H9" s="2" t="str">
+        <f t="shared" ref="H9:K12" si="2">_xlfn.VALUETOTEXT(H3)</f>
         <v>0F</v>
       </c>
-      <c r="I9" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="J9" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>0C</v>
       </c>
-      <c r="K9" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="K9" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
     </row>
@@ -1526,25 +1608,25 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="H10" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>D9</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>B7</v>
       </c>
-      <c r="K10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="K10" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>7F</v>
       </c>
     </row>
@@ -1552,25 +1634,25 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>E8</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>AD</v>
       </c>
-      <c r="K11" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="K11" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
     </row>
@@ -1578,27 +1660,27 @@
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
       <c r="G12">
         <v>4</v>
       </c>
-      <c r="H12" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>C9</v>
       </c>
-      <c r="I12" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="I12" s="8" t="str">
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="J12" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="2"/>
         <v>D6</v>
       </c>
-      <c r="K12" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="K12" s="9" t="str">
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
     </row>
@@ -1638,57 +1720,57 @@
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="E16" s="6"/>
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="K16" s="7"/>
+      <c r="H16" s="5"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="E17" s="6"/>
       <c r="G17">
         <v>3</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="K17" s="7"/>
+      <c r="H17" s="5"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
       <c r="G18">
         <v>4</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
@@ -1711,33 +1793,33 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="5"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="5"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
@@ -1775,57 +1857,57 @@
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="5"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>2</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="E28" s="7"/>
+      <c r="B28" s="5"/>
+      <c r="E28" s="6"/>
       <c r="G28">
         <v>2</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="K28" s="7"/>
+      <c r="H28" s="5"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>3</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="E29" s="7"/>
+      <c r="B29" s="5"/>
+      <c r="E29" s="6"/>
       <c r="G29">
         <v>3</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="K29" s="7"/>
+      <c r="H29" s="5"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
       <c r="G30">
         <v>4</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
@@ -1844,39 +1926,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B34" s="5"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B35" s="5"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>269</v>
       </c>
@@ -1895,35 +1977,57 @@
       <c r="G38" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M38" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
-      <c r="H39" s="3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="H39" s="2">
         <v>1</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>2</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="3">
         <v>3</v>
       </c>
-      <c r="K39" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K39" s="4">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>2</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="H40" s="6">
+      <c r="B40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="H40" s="5">
         <v>2</v>
       </c>
       <c r="I40">
@@ -1932,17 +2036,22 @@
       <c r="J40">
         <v>4</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="E41" s="7"/>
-      <c r="H41" s="6">
+      <c r="B41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="H41" s="5">
         <v>3</v>
       </c>
       <c r="I41">
@@ -1951,30 +2060,42 @@
       <c r="J41">
         <v>1</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>4</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="H42" s="8">
-        <v>4</v>
-      </c>
-      <c r="I42" s="9">
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="H42" s="7">
+        <v>4</v>
+      </c>
+      <c r="I42" s="8">
         <v>1</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="8">
         <v>2</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="9">
         <v>3</v>
       </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42" s="7"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1985,937 +2106,937 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59365D9-38AE-4C97-8725-24FE1806E389}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B1" s="2">
+      <c r="B1" s="10">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="10">
         <f>B1+1</f>
         <v>1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="10">
         <f t="shared" ref="D1:Q1" si="0">C1+1</f>
         <v>2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="10">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="10">
         <f t="shared" ref="A4:A17" si="1">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="A7" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="A8" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="16" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+      <c r="A9" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
+      <c r="A10" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
+      <c r="A11" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
+      <c r="A12" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="16" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="16" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
+      <c r="A14" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="16" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
+      <c r="A15" s="10">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="16" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
+      <c r="A16" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="16" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
+      <c r="A17" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="2" t="s">
+      <c r="M17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="19" t="s">
         <v>268</v>
       </c>
     </row>

--- a/teaching/CSMC/2425/static/labsheets/04-AES.xlsx
+++ b/teaching/CSMC/2425/static/labsheets/04-AES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acesac5\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43557BAA-7722-4CB0-904B-0F71CBA20403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A7457BB-027E-49F2-B506-CC7EF1DB077C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{18BD22D2-0FA4-470C-BC17-C0DFE678AFEB}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{18BD22D2-0FA4-470C-BC17-C0DFE678AFEB}"/>
   </bookViews>
   <sheets>
     <sheet name="AES" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="270">
   <si>
     <t>Plaintext</t>
   </si>
@@ -847,9 +847,6 @@
   </si>
   <si>
     <t>ShiftRow</t>
-  </si>
-  <si>
-    <t>InvShiftRow</t>
   </si>
 </sst>
 </file>
@@ -999,7 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1348,19 +1345,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0E8165-3EF5-47D9-8D70-A2A5428568A0}">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="F25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M47" sqref="M34:Q47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1436,12 +1433,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="str">
-        <f t="shared" ref="B4:E6" si="1">MID($B$1,4*(B$2-1)+$A4,1)</f>
+        <f t="shared" ref="B4:B6" si="1">MID($B$1,4*(B$2-1)+$A4,1)</f>
         <v>o</v>
       </c>
       <c r="C4" t="str">
@@ -1472,7 +1469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1508,7 +1505,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1544,7 +1541,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1576,7 +1573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1604,7 +1601,7 @@
         <v>AF</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1630,7 +1627,7 @@
         <v>7F</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1656,7 +1653,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1684,7 +1681,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1716,7 +1713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1732,7 +1729,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1744,7 +1741,7 @@
       <c r="H16" s="5"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1756,7 +1753,7 @@
       <c r="H17" s="5"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1772,7 +1769,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1789,7 +1786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1798,21 +1795,21 @@
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" s="5"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" s="5"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1821,7 +1818,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1853,7 +1850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1869,7 +1866,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1881,7 +1878,7 @@
       <c r="H28" s="5"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1893,7 +1890,7 @@
       <c r="H29" s="5"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1909,7 +1906,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -1926,7 +1923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1935,21 +1932,21 @@
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="5"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" s="5"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1958,7 +1955,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>269</v>
       </c>
@@ -1977,23 +1974,8 @@
       <c r="G38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>2</v>
-      </c>
-      <c r="P38">
-        <v>3</v>
-      </c>
-      <c r="Q38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2013,15 +1995,8 @@
       <c r="K39" s="4">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="4"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2039,13 +2014,8 @@
       <c r="K40" s="6">
         <v>1</v>
       </c>
-      <c r="M40">
-        <v>2</v>
-      </c>
-      <c r="N40" s="5"/>
-      <c r="Q40" s="6"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2063,13 +2033,8 @@
       <c r="K41" s="6">
         <v>2</v>
       </c>
-      <c r="M41">
-        <v>3</v>
-      </c>
-      <c r="N41" s="5"/>
-      <c r="Q41" s="6"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2089,13 +2054,6 @@
       <c r="K42" s="9">
         <v>3</v>
       </c>
-      <c r="M42">
-        <v>4</v>
-      </c>
-      <c r="N42" s="7"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2106,13 +2064,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59365D9-38AE-4C97-8725-24FE1806E389}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="10">
         <v>0</v>
       </c>
@@ -2177,7 +2135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>0</v>
       </c>
@@ -2230,7 +2188,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <f>A2+1</f>
         <v>1</v>
@@ -2284,7 +2242,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <f t="shared" ref="A4:A17" si="1">A3+1</f>
         <v>2</v>
@@ -2338,7 +2296,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2392,7 +2350,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2446,7 +2404,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2500,7 +2458,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2554,7 +2512,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2608,7 +2566,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2662,7 +2620,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2716,7 +2674,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2770,7 +2728,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2824,7 +2782,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2878,7 +2836,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2932,7 +2890,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2986,7 +2944,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <f t="shared" si="1"/>
         <v>15</v>

--- a/teaching/CSMC/2425/static/labsheets/04-AES.xlsx
+++ b/teaching/CSMC/2425/static/labsheets/04-AES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acesac5\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A7457BB-027E-49F2-B506-CC7EF1DB077C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A178EA17-7E47-4343-A36E-95A17776AAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{18BD22D2-0FA4-470C-BC17-C0DFE678AFEB}"/>
+    <workbookView xWindow="28620" yWindow="-180" windowWidth="25560" windowHeight="16110" xr2:uid="{18BD22D2-0FA4-470C-BC17-C0DFE678AFEB}"/>
   </bookViews>
   <sheets>
     <sheet name="AES" sheetId="1" r:id="rId1"/>
@@ -1347,17 +1347,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0E8165-3EF5-47D9-8D70-A2A5428568A0}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M47" sqref="M34:Q47"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1397,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1433,7 +1431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1469,7 +1467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1505,7 +1503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1541,7 +1539,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1573,7 +1571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1601,7 +1599,7 @@
         <v>AF</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1627,7 +1625,7 @@
         <v>7F</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1653,7 +1651,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1681,7 +1679,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1713,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1729,7 +1727,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1741,7 +1739,7 @@
       <c r="H16" s="5"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1753,7 +1751,7 @@
       <c r="H17" s="5"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1769,7 +1767,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1786,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1795,21 +1793,21 @@
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" s="5"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" s="5"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1818,7 +1816,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1850,7 +1848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1866,7 +1864,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1878,7 +1876,7 @@
       <c r="H28" s="5"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1890,7 +1888,7 @@
       <c r="H29" s="5"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1906,7 +1904,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -1923,7 +1921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1932,21 +1930,21 @@
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="5"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" s="5"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1955,7 +1953,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>269</v>
       </c>
@@ -1975,7 +1973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1996,7 +1994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2015,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2034,7 +2032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2068,9 +2066,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" s="10">
         <v>0</v>
       </c>
@@ -2135,7 +2133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="10">
         <v>0</v>
       </c>
@@ -2188,7 +2186,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="10">
         <f>A2+1</f>
         <v>1</v>
@@ -2242,7 +2240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="10">
         <f t="shared" ref="A4:A17" si="1">A3+1</f>
         <v>2</v>
@@ -2296,7 +2294,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2350,7 +2348,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2404,7 +2402,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2458,7 +2456,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2512,7 +2510,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2566,7 +2564,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2620,7 +2618,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2674,7 +2672,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2728,7 +2726,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2782,7 +2780,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2836,7 +2834,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="10">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2890,7 +2888,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2944,7 +2942,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
